--- a/Run_List.xlsx
+++ b/Run_List.xlsx
@@ -184,7 +184,7 @@
     <t>C:Au F:Al5</t>
   </si>
   <si>
-    <t>117519-117522, 117529-117532</t>
+    <t>117519-117522, 117530-117532</t>
   </si>
   <si>
     <t>C: AmBe F: Al5 beam off</t>
